--- a/NamesModel/Assets/Predicted_Names_Christian_Male.xlsx
+++ b/NamesModel/Assets/Predicted_Names_Christian_Male.xlsx
@@ -53997,43 +53997,43 @@
         <v>2022</v>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -54045,61 +54045,61 @@
         <v>4</v>
       </c>
       <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3</v>
+      </c>
+      <c r="W71" t="n">
+        <v>2</v>
+      </c>
+      <c r="X71" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA71" t="n">
         <v>1</v>
-      </c>
-      <c r="S71" t="n">
-        <v>4</v>
-      </c>
-      <c r="T71" t="n">
-        <v>0</v>
-      </c>
-      <c r="U71" t="n">
-        <v>1</v>
-      </c>
-      <c r="V71" t="n">
-        <v>2</v>
-      </c>
-      <c r="W71" t="n">
-        <v>1</v>
-      </c>
-      <c r="X71" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>2</v>
       </c>
       <c r="AB71" t="n">
         <v>1</v>
       </c>
       <c r="AC71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE71" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AF71" t="n">
         <v>1</v>
       </c>
       <c r="AG71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI71" t="n">
         <v>0</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK71" t="n">
         <v>2</v>
@@ -54117,82 +54117,82 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY71" t="n">
         <v>1</v>
       </c>
-      <c r="AQ71" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR71" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW71" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX71" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY71" t="n">
-        <v>2</v>
-      </c>
       <c r="AZ71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA71" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB71" t="n">
         <v>4</v>
       </c>
       <c r="BC71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD71" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="BE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK71" t="n">
         <v>1</v>
       </c>
-      <c r="BF71" t="n">
-        <v>11</v>
-      </c>
-      <c r="BG71" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH71" t="n">
-        <v>12</v>
-      </c>
-      <c r="BI71" t="n">
+      <c r="BL71" t="n">
+        <v>27</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO71" t="n">
         <v>4</v>
-      </c>
-      <c r="BJ71" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK71" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL71" t="n">
-        <v>31</v>
-      </c>
-      <c r="BM71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN71" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO71" t="n">
-        <v>8</v>
       </c>
       <c r="BP71" t="n">
         <v>0</v>
@@ -54201,59 +54201,59 @@
         <v>1</v>
       </c>
       <c r="BR71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BS71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BU71" t="n">
         <v>0</v>
       </c>
       <c r="BV71" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BW71" t="n">
         <v>2</v>
       </c>
       <c r="BX71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BY71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CB71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE71" t="n">
         <v>4</v>
       </c>
       <c r="CF71" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CG71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CH71" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI71" t="n">
         <v>1</v>
       </c>
-      <c r="CI71" t="n">
-        <v>2</v>
-      </c>
       <c r="CJ71" t="n">
         <v>0</v>
       </c>
@@ -54261,49 +54261,49 @@
         <v>0</v>
       </c>
       <c r="CL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM71" t="n">
         <v>3</v>
       </c>
-      <c r="CM71" t="n">
-        <v>4</v>
-      </c>
       <c r="CN71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CP71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CQ71" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="CR71" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="CS71" t="n">
         <v>8</v>
       </c>
       <c r="CT71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV71" t="n">
         <v>0</v>
       </c>
       <c r="CW71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CX71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CY71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DA71" t="n">
         <v>0</v>
@@ -54312,109 +54312,109 @@
         <v>3</v>
       </c>
       <c r="DC71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DD71" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DE71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DF71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="DG71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DH71" t="n">
         <v>2</v>
       </c>
       <c r="DI71" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="DJ71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DK71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DL71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DM71" t="n">
         <v>1</v>
       </c>
       <c r="DN71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DO71" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="DP71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DQ71" t="n">
+        <v>4</v>
+      </c>
+      <c r="DR71" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS71" t="n">
         <v>1</v>
       </c>
-      <c r="DR71" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS71" t="n">
-        <v>7</v>
-      </c>
       <c r="DT71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU71" t="n">
         <v>1</v>
       </c>
       <c r="DV71" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="DW71" t="n">
         <v>2</v>
       </c>
       <c r="DX71" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DY71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DZ71" t="n">
         <v>1</v>
       </c>
       <c r="EA71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EB71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC71" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="ED71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EE71" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="EF71" t="n">
         <v>0</v>
       </c>
       <c r="EG71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EH71" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="EI71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="EJ71" t="n">
         <v>0</v>
       </c>
       <c r="EK71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EL71" t="n">
         <v>1</v>
@@ -54426,19 +54426,19 @@
         <v>0</v>
       </c>
       <c r="EO71" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="EP71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="EQ71" t="n">
         <v>1</v>
       </c>
       <c r="ER71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="ET71" t="n">
         <v>6</v>
@@ -54447,22 +54447,22 @@
         <v>0</v>
       </c>
       <c r="EV71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EW71" t="n">
         <v>2</v>
       </c>
       <c r="EX71" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY71" t="n">
         <v>1</v>
       </c>
-      <c r="EY71" t="n">
-        <v>2</v>
-      </c>
       <c r="EZ71" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="FA71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FB71" t="n">
         <v>1</v>
@@ -54471,28 +54471,28 @@
         <v>2</v>
       </c>
       <c r="FD71" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="FE71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FF71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG71" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="FH71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FI71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FK71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL71" t="n">
         <v>2</v>
@@ -54501,37 +54501,37 @@
         <v>2</v>
       </c>
       <c r="FN71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="FO71" t="n">
         <v>2</v>
       </c>
       <c r="FP71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FR71" t="n">
         <v>1</v>
       </c>
       <c r="FS71" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="FT71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FU71" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="FV71" t="n">
         <v>1</v>
       </c>
       <c r="FW71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX71" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="FY71" t="n">
         <v>2</v>
@@ -54540,49 +54540,49 @@
         <v>1</v>
       </c>
       <c r="GA71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GB71" t="n">
         <v>5</v>
       </c>
       <c r="GC71" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="GD71" t="n">
         <v>1</v>
       </c>
       <c r="GE71" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="GF71" t="n">
         <v>2</v>
       </c>
       <c r="GG71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GH71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GI71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GJ71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK71" t="n">
         <v>1</v>
       </c>
       <c r="GL71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="GM71" t="n">
         <v>0</v>
       </c>
       <c r="GN71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GP71" t="n">
         <v>7</v>
@@ -54591,34 +54591,34 @@
         <v>1</v>
       </c>
       <c r="GR71" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="GS71" t="n">
         <v>2</v>
       </c>
       <c r="GT71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="GU71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GV71" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="GW71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX71" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="GY71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GZ71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="HB71" t="n">
         <v>0</v>
@@ -54627,61 +54627,61 @@
         <v>1</v>
       </c>
       <c r="HD71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="HE71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HF71" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="HG71" t="n">
         <v>1</v>
       </c>
       <c r="HH71" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI71" t="n">
+        <v>3</v>
+      </c>
+      <c r="HJ71" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK71" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM71" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN71" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO71" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP71" t="n">
         <v>1</v>
       </c>
-      <c r="HI71" t="n">
-        <v>4</v>
-      </c>
-      <c r="HJ71" t="n">
-        <v>2</v>
-      </c>
-      <c r="HK71" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL71" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM71" t="n">
-        <v>3</v>
-      </c>
-      <c r="HN71" t="n">
-        <v>2</v>
-      </c>
-      <c r="HO71" t="n">
-        <v>2</v>
-      </c>
-      <c r="HP71" t="n">
-        <v>0</v>
-      </c>
       <c r="HQ71" t="n">
         <v>0</v>
       </c>
       <c r="HR71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HS71" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="HT71" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="HU71" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="HV71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="HW71" t="n">
         <v>1</v>
@@ -54690,61 +54690,61 @@
         <v>1</v>
       </c>
       <c r="HY71" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA71" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID71" t="n">
+        <v>6</v>
+      </c>
+      <c r="IE71" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF71" t="n">
         <v>1</v>
       </c>
-      <c r="HZ71" t="n">
+      <c r="IG71" t="n">
+        <v>2</v>
+      </c>
+      <c r="IH71" t="n">
+        <v>0</v>
+      </c>
+      <c r="II71" t="n">
+        <v>4</v>
+      </c>
+      <c r="IJ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK71" t="n">
+        <v>2</v>
+      </c>
+      <c r="IL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM71" t="n">
+        <v>36</v>
+      </c>
+      <c r="IN71" t="n">
         <v>1</v>
       </c>
-      <c r="IA71" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB71" t="n">
-        <v>5</v>
-      </c>
-      <c r="IC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID71" t="n">
-        <v>5</v>
-      </c>
-      <c r="IE71" t="n">
-        <v>1</v>
-      </c>
-      <c r="IF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG71" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="II71" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ71" t="n">
-        <v>1</v>
-      </c>
-      <c r="IK71" t="n">
-        <v>16</v>
-      </c>
-      <c r="IL71" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM71" t="n">
-        <v>17</v>
-      </c>
-      <c r="IN71" t="n">
-        <v>0</v>
-      </c>
       <c r="IO71" t="n">
         <v>2</v>
       </c>
       <c r="IP71" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="IQ71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="IR71" t="n">
         <v>0</v>
@@ -54755,49 +54755,49 @@
         <v>2023</v>
       </c>
       <c r="B72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q72" t="n">
         <v>4</v>
@@ -54806,43 +54806,43 @@
         <v>1</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3</v>
+      </c>
+      <c r="W72" t="n">
+        <v>2</v>
+      </c>
+      <c r="X72" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y72" t="n">
         <v>1</v>
       </c>
-      <c r="V72" t="n">
-        <v>2</v>
-      </c>
-      <c r="W72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X72" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>2</v>
-      </c>
       <c r="Z72" t="n">
         <v>2</v>
       </c>
       <c r="AA72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB72" t="n">
         <v>1</v>
       </c>
       <c r="AC72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE72" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AF72" t="n">
         <v>1</v>
@@ -54854,10 +54854,10 @@
         <v>1</v>
       </c>
       <c r="AI72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK72" t="n">
         <v>2</v>
@@ -54875,73 +54875,73 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY72" t="n">
         <v>1</v>
       </c>
-      <c r="AQ72" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR72" t="n">
+      <c r="AZ72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>36</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF72" t="n">
         <v>13</v>
       </c>
-      <c r="AS72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX72" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY72" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ72" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA72" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD72" t="n">
-        <v>10</v>
-      </c>
-      <c r="BE72" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF72" t="n">
-        <v>12</v>
-      </c>
       <c r="BG72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH72" t="n">
         <v>12</v>
       </c>
       <c r="BI72" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BK72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL72" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BM72" t="n">
         <v>0</v>
@@ -54950,7 +54950,7 @@
         <v>2</v>
       </c>
       <c r="BO72" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BP72" t="n">
         <v>0</v>
@@ -54959,103 +54959,103 @@
         <v>1</v>
       </c>
       <c r="BR72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA72" t="n">
+        <v>4</v>
+      </c>
+      <c r="CB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE72" t="n">
         <v>3</v>
       </c>
-      <c r="BS72" t="n">
+      <c r="CF72" t="n">
+        <v>9</v>
+      </c>
+      <c r="CG72" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH72" t="n">
         <v>3</v>
       </c>
-      <c r="BT72" t="n">
+      <c r="CI72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL72" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM72" t="n">
         <v>3</v>
       </c>
-      <c r="BU72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV72" t="n">
-        <v>4</v>
-      </c>
-      <c r="BW72" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX72" t="n">
+      <c r="CN72" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO72" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP72" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ72" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR72" t="n">
         <v>3</v>
-      </c>
-      <c r="BY72" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ72" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB72" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC72" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD72" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE72" t="n">
-        <v>4</v>
-      </c>
-      <c r="CF72" t="n">
-        <v>15</v>
-      </c>
-      <c r="CG72" t="n">
-        <v>2</v>
-      </c>
-      <c r="CH72" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI72" t="n">
-        <v>3</v>
-      </c>
-      <c r="CJ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL72" t="n">
-        <v>3</v>
-      </c>
-      <c r="CM72" t="n">
-        <v>4</v>
-      </c>
-      <c r="CN72" t="n">
-        <v>2</v>
-      </c>
-      <c r="CO72" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP72" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ72" t="n">
-        <v>8</v>
-      </c>
-      <c r="CR72" t="n">
-        <v>14</v>
       </c>
       <c r="CS72" t="n">
         <v>8</v>
       </c>
       <c r="CT72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV72" t="n">
         <v>0</v>
       </c>
       <c r="CW72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CX72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CY72" t="n">
         <v>1</v>
@@ -55067,112 +55067,112 @@
         <v>0</v>
       </c>
       <c r="DB72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DC72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DD72" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DE72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DF72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="DG72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DH72" t="n">
         <v>2</v>
       </c>
       <c r="DI72" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="DJ72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DK72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DL72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DM72" t="n">
         <v>1</v>
       </c>
       <c r="DN72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DO72" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="DP72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DQ72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DR72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS72" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="DT72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU72" t="n">
         <v>1</v>
       </c>
       <c r="DV72" t="n">
+        <v>9</v>
+      </c>
+      <c r="DW72" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX72" t="n">
+        <v>6</v>
+      </c>
+      <c r="DY72" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA72" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB72" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC72" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED72" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE72" t="n">
+        <v>18</v>
+      </c>
+      <c r="EF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG72" t="n">
+        <v>2</v>
+      </c>
+      <c r="EH72" t="n">
+        <v>6</v>
+      </c>
+      <c r="EI72" t="n">
         <v>3</v>
       </c>
-      <c r="DW72" t="n">
-        <v>2</v>
-      </c>
-      <c r="DX72" t="n">
+      <c r="EJ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK72" t="n">
         <v>1</v>
-      </c>
-      <c r="DY72" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ72" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA72" t="n">
-        <v>2</v>
-      </c>
-      <c r="EB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC72" t="n">
-        <v>6</v>
-      </c>
-      <c r="ED72" t="n">
-        <v>3</v>
-      </c>
-      <c r="EE72" t="n">
-        <v>25</v>
-      </c>
-      <c r="EF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH72" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI72" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK72" t="n">
-        <v>4</v>
       </c>
       <c r="EL72" t="n">
         <v>1</v>
@@ -55184,7 +55184,7 @@
         <v>0</v>
       </c>
       <c r="EO72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="EP72" t="n">
         <v>4</v>
@@ -55196,58 +55196,58 @@
         <v>0</v>
       </c>
       <c r="ES72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="ET72" t="n">
         <v>6</v>
       </c>
       <c r="EU72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EW72" t="n">
         <v>2</v>
       </c>
       <c r="EX72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EZ72" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="FA72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FB72" t="n">
         <v>1</v>
       </c>
       <c r="FC72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FD72" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FE72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FF72" t="n">
         <v>1</v>
       </c>
       <c r="FG72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="FH72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FI72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FK72" t="n">
         <v>1</v>
@@ -55259,7 +55259,7 @@
         <v>2</v>
       </c>
       <c r="FN72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="FO72" t="n">
         <v>2</v>
@@ -55268,244 +55268,244 @@
         <v>1</v>
       </c>
       <c r="FQ72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FR72" t="n">
         <v>1</v>
       </c>
       <c r="FS72" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="FT72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FU72" t="n">
         <v>9</v>
       </c>
       <c r="FV72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FW72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX72" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="FY72" t="n">
         <v>2</v>
       </c>
       <c r="FZ72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GB72" t="n">
         <v>5</v>
       </c>
       <c r="GC72" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="GD72" t="n">
         <v>1</v>
       </c>
       <c r="GE72" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="GF72" t="n">
         <v>2</v>
       </c>
       <c r="GG72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GH72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GI72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GJ72" t="n">
         <v>1</v>
       </c>
       <c r="GK72" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL72" t="n">
+        <v>5</v>
+      </c>
+      <c r="GM72" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN72" t="n">
         <v>1</v>
       </c>
-      <c r="GL72" t="n">
-        <v>6</v>
-      </c>
-      <c r="GM72" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN72" t="n">
-        <v>0</v>
-      </c>
       <c r="GO72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GP72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GQ72" t="n">
         <v>1</v>
       </c>
       <c r="GR72" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="GS72" t="n">
         <v>2</v>
       </c>
       <c r="GT72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="GU72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GV72" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="GW72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX72" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="GY72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GZ72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="HB72" t="n">
         <v>0</v>
       </c>
       <c r="HC72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD72" t="n">
         <v>5</v>
       </c>
       <c r="HE72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HF72" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="HG72" t="n">
         <v>1</v>
       </c>
       <c r="HH72" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI72" t="n">
+        <v>3</v>
+      </c>
+      <c r="HJ72" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK72" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM72" t="n">
         <v>1</v>
       </c>
-      <c r="HI72" t="n">
-        <v>4</v>
-      </c>
-      <c r="HJ72" t="n">
-        <v>2</v>
-      </c>
-      <c r="HK72" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL72" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM72" t="n">
-        <v>3</v>
-      </c>
       <c r="HN72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="HO72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HP72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HS72" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="HT72" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="HU72" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="HV72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HW72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX72" t="n">
         <v>1</v>
       </c>
       <c r="HY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA72" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB72" t="n">
         <v>1</v>
       </c>
-      <c r="HZ72" t="n">
+      <c r="IC72" t="n">
         <v>1</v>
       </c>
-      <c r="IA72" t="n">
-        <v>2</v>
-      </c>
-      <c r="IB72" t="n">
-        <v>6</v>
-      </c>
-      <c r="IC72" t="n">
-        <v>0</v>
-      </c>
       <c r="ID72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="IE72" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF72" t="n">
         <v>1</v>
       </c>
-      <c r="IF72" t="n">
-        <v>0</v>
-      </c>
       <c r="IG72" t="n">
+        <v>2</v>
+      </c>
+      <c r="IH72" t="n">
         <v>1</v>
       </c>
-      <c r="IH72" t="n">
-        <v>0</v>
-      </c>
       <c r="II72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IJ72" t="n">
         <v>1</v>
       </c>
       <c r="IK72" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="IL72" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM72" t="n">
+        <v>35</v>
+      </c>
+      <c r="IN72" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO72" t="n">
+        <v>2</v>
+      </c>
+      <c r="IP72" t="n">
         <v>1</v>
       </c>
-      <c r="IM72" t="n">
-        <v>17</v>
-      </c>
-      <c r="IN72" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO72" t="n">
-        <v>2</v>
-      </c>
-      <c r="IP72" t="n">
-        <v>7</v>
-      </c>
       <c r="IQ72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IR72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -55513,49 +55513,49 @@
         <v>2024</v>
       </c>
       <c r="B73" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q73" t="n">
         <v>4</v>
@@ -55564,43 +55564,43 @@
         <v>1</v>
       </c>
       <c r="S73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3</v>
+      </c>
+      <c r="W73" t="n">
+        <v>2</v>
+      </c>
+      <c r="X73" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y73" t="n">
         <v>1</v>
       </c>
-      <c r="V73" t="n">
-        <v>2</v>
-      </c>
-      <c r="W73" t="n">
-        <v>1</v>
-      </c>
-      <c r="X73" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>2</v>
-      </c>
       <c r="Z73" t="n">
         <v>2</v>
       </c>
       <c r="AA73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB73" t="n">
         <v>1</v>
       </c>
       <c r="AC73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE73" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="AF73" t="n">
         <v>1</v>
@@ -55612,10 +55612,10 @@
         <v>1</v>
       </c>
       <c r="AI73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK73" t="n">
         <v>2</v>
@@ -55633,73 +55633,73 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY73" t="n">
         <v>1</v>
       </c>
-      <c r="AQ73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR73" t="n">
+      <c r="AZ73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>36</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
         <v>13</v>
       </c>
-      <c r="AS73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW73" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX73" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ73" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA73" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB73" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC73" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD73" t="n">
-        <v>11</v>
-      </c>
-      <c r="BE73" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF73" t="n">
-        <v>12</v>
-      </c>
       <c r="BG73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH73" t="n">
         <v>12</v>
       </c>
       <c r="BI73" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BK73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL73" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BM73" t="n">
         <v>0</v>
@@ -55708,7 +55708,7 @@
         <v>2</v>
       </c>
       <c r="BO73" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BP73" t="n">
         <v>0</v>
@@ -55717,103 +55717,103 @@
         <v>1</v>
       </c>
       <c r="BR73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA73" t="n">
+        <v>4</v>
+      </c>
+      <c r="CB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE73" t="n">
         <v>3</v>
       </c>
-      <c r="BS73" t="n">
+      <c r="CF73" t="n">
+        <v>9</v>
+      </c>
+      <c r="CG73" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH73" t="n">
         <v>3</v>
       </c>
-      <c r="BT73" t="n">
+      <c r="CI73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL73" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM73" t="n">
         <v>3</v>
       </c>
-      <c r="BU73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV73" t="n">
-        <v>4</v>
-      </c>
-      <c r="BW73" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX73" t="n">
+      <c r="CN73" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO73" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP73" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ73" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR73" t="n">
         <v>3</v>
       </c>
-      <c r="BY73" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ73" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB73" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC73" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD73" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE73" t="n">
-        <v>4</v>
-      </c>
-      <c r="CF73" t="n">
-        <v>15</v>
-      </c>
-      <c r="CG73" t="n">
-        <v>2</v>
-      </c>
-      <c r="CH73" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI73" t="n">
-        <v>3</v>
-      </c>
-      <c r="CJ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL73" t="n">
-        <v>3</v>
-      </c>
-      <c r="CM73" t="n">
-        <v>4</v>
-      </c>
-      <c r="CN73" t="n">
-        <v>2</v>
-      </c>
-      <c r="CO73" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP73" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ73" t="n">
-        <v>8</v>
-      </c>
-      <c r="CR73" t="n">
-        <v>14</v>
-      </c>
       <c r="CS73" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV73" t="n">
         <v>0</v>
       </c>
       <c r="CW73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CX73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CY73" t="n">
         <v>1</v>
@@ -55825,112 +55825,112 @@
         <v>0</v>
       </c>
       <c r="DB73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DC73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DD73" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DE73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DF73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="DG73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DH73" t="n">
         <v>2</v>
       </c>
       <c r="DI73" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="DJ73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DK73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DL73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DM73" t="n">
         <v>1</v>
       </c>
       <c r="DN73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DO73" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="DP73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DQ73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DR73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS73" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="DT73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU73" t="n">
         <v>1</v>
       </c>
       <c r="DV73" t="n">
+        <v>8</v>
+      </c>
+      <c r="DW73" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX73" t="n">
+        <v>6</v>
+      </c>
+      <c r="DY73" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA73" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB73" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC73" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED73" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE73" t="n">
+        <v>18</v>
+      </c>
+      <c r="EF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG73" t="n">
+        <v>2</v>
+      </c>
+      <c r="EH73" t="n">
+        <v>6</v>
+      </c>
+      <c r="EI73" t="n">
         <v>3</v>
       </c>
-      <c r="DW73" t="n">
-        <v>2</v>
-      </c>
-      <c r="DX73" t="n">
+      <c r="EJ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK73" t="n">
         <v>1</v>
-      </c>
-      <c r="DY73" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ73" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA73" t="n">
-        <v>2</v>
-      </c>
-      <c r="EB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC73" t="n">
-        <v>6</v>
-      </c>
-      <c r="ED73" t="n">
-        <v>3</v>
-      </c>
-      <c r="EE73" t="n">
-        <v>26</v>
-      </c>
-      <c r="EF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG73" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH73" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI73" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK73" t="n">
-        <v>4</v>
       </c>
       <c r="EL73" t="n">
         <v>1</v>
@@ -55942,7 +55942,7 @@
         <v>0</v>
       </c>
       <c r="EO73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="EP73" t="n">
         <v>4</v>
@@ -55954,58 +55954,58 @@
         <v>0</v>
       </c>
       <c r="ES73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="ET73" t="n">
         <v>6</v>
       </c>
       <c r="EU73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EW73" t="n">
         <v>2</v>
       </c>
       <c r="EX73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EZ73" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="FA73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FB73" t="n">
         <v>1</v>
       </c>
       <c r="FC73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FD73" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FE73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FF73" t="n">
         <v>1</v>
       </c>
       <c r="FG73" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="FH73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FI73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FK73" t="n">
         <v>1</v>
@@ -56017,253 +56017,253 @@
         <v>2</v>
       </c>
       <c r="FN73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="FO73" t="n">
         <v>2</v>
       </c>
       <c r="FP73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FQ73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FR73" t="n">
         <v>1</v>
       </c>
       <c r="FS73" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="FT73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FU73" t="n">
         <v>9</v>
       </c>
       <c r="FV73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FW73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="FY73" t="n">
         <v>2</v>
       </c>
       <c r="FZ73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GB73" t="n">
         <v>5</v>
       </c>
       <c r="GC73" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="GD73" t="n">
         <v>1</v>
       </c>
       <c r="GE73" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="GF73" t="n">
         <v>2</v>
       </c>
       <c r="GG73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GH73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GI73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GJ73" t="n">
         <v>1</v>
       </c>
       <c r="GK73" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL73" t="n">
+        <v>5</v>
+      </c>
+      <c r="GM73" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN73" t="n">
         <v>1</v>
       </c>
-      <c r="GL73" t="n">
-        <v>6</v>
-      </c>
-      <c r="GM73" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN73" t="n">
-        <v>0</v>
-      </c>
       <c r="GO73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GP73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GQ73" t="n">
         <v>1</v>
       </c>
       <c r="GR73" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="GS73" t="n">
         <v>2</v>
       </c>
       <c r="GT73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="GU73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GV73" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="GW73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX73" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="GY73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GZ73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="HB73" t="n">
         <v>0</v>
       </c>
       <c r="HC73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD73" t="n">
         <v>5</v>
       </c>
       <c r="HE73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HF73" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="HG73" t="n">
         <v>1</v>
       </c>
       <c r="HH73" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI73" t="n">
+        <v>3</v>
+      </c>
+      <c r="HJ73" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK73" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM73" t="n">
         <v>1</v>
       </c>
-      <c r="HI73" t="n">
-        <v>4</v>
-      </c>
-      <c r="HJ73" t="n">
-        <v>2</v>
-      </c>
-      <c r="HK73" t="n">
-        <v>4</v>
-      </c>
-      <c r="HL73" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM73" t="n">
+      <c r="HN73" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP73" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ73" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS73" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT73" t="n">
         <v>3</v>
       </c>
-      <c r="HN73" t="n">
-        <v>3</v>
-      </c>
-      <c r="HO73" t="n">
-        <v>2</v>
-      </c>
-      <c r="HP73" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR73" t="n">
-        <v>2</v>
-      </c>
-      <c r="HS73" t="n">
-        <v>15</v>
-      </c>
-      <c r="HT73" t="n">
-        <v>8</v>
-      </c>
       <c r="HU73" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="HV73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HW73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX73" t="n">
         <v>1</v>
       </c>
       <c r="HY73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA73" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB73" t="n">
         <v>1</v>
       </c>
-      <c r="HZ73" t="n">
+      <c r="IC73" t="n">
         <v>1</v>
       </c>
-      <c r="IA73" t="n">
-        <v>2</v>
-      </c>
-      <c r="IB73" t="n">
-        <v>6</v>
-      </c>
-      <c r="IC73" t="n">
-        <v>0</v>
-      </c>
       <c r="ID73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="IE73" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF73" t="n">
         <v>1</v>
       </c>
-      <c r="IF73" t="n">
-        <v>0</v>
-      </c>
       <c r="IG73" t="n">
+        <v>3</v>
+      </c>
+      <c r="IH73" t="n">
         <v>1</v>
       </c>
-      <c r="IH73" t="n">
-        <v>0</v>
-      </c>
       <c r="II73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IJ73" t="n">
         <v>1</v>
       </c>
       <c r="IK73" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="IL73" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM73" t="n">
+        <v>35</v>
+      </c>
+      <c r="IN73" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO73" t="n">
+        <v>2</v>
+      </c>
+      <c r="IP73" t="n">
         <v>1</v>
       </c>
-      <c r="IM73" t="n">
-        <v>18</v>
-      </c>
-      <c r="IN73" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO73" t="n">
-        <v>2</v>
-      </c>
-      <c r="IP73" t="n">
-        <v>7</v>
-      </c>
       <c r="IQ73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IR73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -56271,49 +56271,49 @@
         <v>2025</v>
       </c>
       <c r="B74" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q74" t="n">
         <v>4</v>
@@ -56322,43 +56322,43 @@
         <v>1</v>
       </c>
       <c r="S74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>3</v>
+      </c>
+      <c r="W74" t="n">
+        <v>2</v>
+      </c>
+      <c r="X74" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y74" t="n">
         <v>1</v>
       </c>
-      <c r="V74" t="n">
-        <v>2</v>
-      </c>
-      <c r="W74" t="n">
-        <v>1</v>
-      </c>
-      <c r="X74" t="n">
-        <v>43</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>2</v>
-      </c>
       <c r="Z74" t="n">
         <v>2</v>
       </c>
       <c r="AA74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB74" t="n">
         <v>1</v>
       </c>
       <c r="AC74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE74" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="AF74" t="n">
         <v>1</v>
@@ -56370,10 +56370,10 @@
         <v>1</v>
       </c>
       <c r="AI74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK74" t="n">
         <v>2</v>
@@ -56391,55 +56391,55 @@
         <v>1</v>
       </c>
       <c r="AP74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY74" t="n">
         <v>1</v>
       </c>
-      <c r="AQ74" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT74" t="n">
+      <c r="AZ74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC74" t="n">
         <v>1</v>
       </c>
-      <c r="AU74" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>2</v>
-      </c>
       <c r="BD74" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="BE74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF74" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BG74" t="n">
         <v>2</v>
@@ -56448,16 +56448,16 @@
         <v>12</v>
       </c>
       <c r="BI74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BK74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL74" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BM74" t="n">
         <v>0</v>
@@ -56466,7 +56466,7 @@
         <v>2</v>
       </c>
       <c r="BO74" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BP74" t="n">
         <v>0</v>
@@ -56475,103 +56475,103 @@
         <v>1</v>
       </c>
       <c r="BR74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA74" t="n">
+        <v>4</v>
+      </c>
+      <c r="CB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE74" t="n">
         <v>3</v>
       </c>
-      <c r="BS74" t="n">
+      <c r="CF74" t="n">
+        <v>9</v>
+      </c>
+      <c r="CG74" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH74" t="n">
         <v>3</v>
       </c>
-      <c r="BT74" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV74" t="n">
-        <v>4</v>
-      </c>
-      <c r="BW74" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX74" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY74" t="n">
+      <c r="CI74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL74" t="n">
         <v>1</v>
-      </c>
-      <c r="BZ74" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB74" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC74" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD74" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE74" t="n">
-        <v>4</v>
-      </c>
-      <c r="CF74" t="n">
-        <v>16</v>
-      </c>
-      <c r="CG74" t="n">
-        <v>2</v>
-      </c>
-      <c r="CH74" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI74" t="n">
-        <v>3</v>
-      </c>
-      <c r="CJ74" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK74" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL74" t="n">
-        <v>3</v>
       </c>
       <c r="CM74" t="n">
         <v>4</v>
       </c>
       <c r="CN74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CP74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CQ74" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="CR74" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CS74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV74" t="n">
         <v>0</v>
       </c>
       <c r="CW74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CX74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CY74" t="n">
         <v>1</v>
@@ -56583,112 +56583,112 @@
         <v>0</v>
       </c>
       <c r="DB74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DC74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DD74" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DE74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DF74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="DG74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DH74" t="n">
         <v>2</v>
       </c>
       <c r="DI74" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="DJ74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DK74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DL74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DM74" t="n">
         <v>1</v>
       </c>
       <c r="DN74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DO74" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="DP74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DQ74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DR74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS74" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="DT74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU74" t="n">
         <v>1</v>
       </c>
       <c r="DV74" t="n">
+        <v>8</v>
+      </c>
+      <c r="DW74" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX74" t="n">
+        <v>6</v>
+      </c>
+      <c r="DY74" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA74" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB74" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC74" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED74" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE74" t="n">
+        <v>18</v>
+      </c>
+      <c r="EF74" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG74" t="n">
+        <v>2</v>
+      </c>
+      <c r="EH74" t="n">
+        <v>6</v>
+      </c>
+      <c r="EI74" t="n">
         <v>3</v>
       </c>
-      <c r="DW74" t="n">
-        <v>2</v>
-      </c>
-      <c r="DX74" t="n">
-        <v>2</v>
-      </c>
-      <c r="DY74" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ74" t="n">
+      <c r="EJ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK74" t="n">
         <v>1</v>
-      </c>
-      <c r="EA74" t="n">
-        <v>2</v>
-      </c>
-      <c r="EB74" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC74" t="n">
-        <v>6</v>
-      </c>
-      <c r="ED74" t="n">
-        <v>3</v>
-      </c>
-      <c r="EE74" t="n">
-        <v>26</v>
-      </c>
-      <c r="EF74" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG74" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH74" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI74" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ74" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK74" t="n">
-        <v>4</v>
       </c>
       <c r="EL74" t="n">
         <v>1</v>
@@ -56700,7 +56700,7 @@
         <v>0</v>
       </c>
       <c r="EO74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="EP74" t="n">
         <v>4</v>
@@ -56712,58 +56712,58 @@
         <v>0</v>
       </c>
       <c r="ES74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="ET74" t="n">
         <v>6</v>
       </c>
       <c r="EU74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EW74" t="n">
         <v>2</v>
       </c>
       <c r="EX74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EZ74" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="FA74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FB74" t="n">
         <v>1</v>
       </c>
       <c r="FC74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FD74" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FE74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FF74" t="n">
         <v>1</v>
       </c>
       <c r="FG74" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="FH74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FI74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FK74" t="n">
         <v>1</v>
@@ -56775,253 +56775,253 @@
         <v>2</v>
       </c>
       <c r="FN74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="FO74" t="n">
         <v>2</v>
       </c>
       <c r="FP74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FQ74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FR74" t="n">
         <v>1</v>
       </c>
       <c r="FS74" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="FT74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FU74" t="n">
         <v>9</v>
       </c>
       <c r="FV74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FW74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX74" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="FY74" t="n">
         <v>2</v>
       </c>
       <c r="FZ74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GB74" t="n">
         <v>5</v>
       </c>
       <c r="GC74" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="GD74" t="n">
         <v>1</v>
       </c>
       <c r="GE74" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="GF74" t="n">
         <v>2</v>
       </c>
       <c r="GG74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GH74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GI74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GJ74" t="n">
         <v>1</v>
       </c>
       <c r="GK74" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL74" t="n">
+        <v>5</v>
+      </c>
+      <c r="GM74" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN74" t="n">
         <v>1</v>
       </c>
-      <c r="GL74" t="n">
-        <v>6</v>
-      </c>
-      <c r="GM74" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN74" t="n">
-        <v>0</v>
-      </c>
       <c r="GO74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GP74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GQ74" t="n">
         <v>1</v>
       </c>
       <c r="GR74" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="GS74" t="n">
         <v>2</v>
       </c>
       <c r="GT74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="GU74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GV74" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="GW74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX74" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="GY74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GZ74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="HB74" t="n">
         <v>0</v>
       </c>
       <c r="HC74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HD74" t="n">
         <v>5</v>
       </c>
       <c r="HE74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HF74" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="HG74" t="n">
         <v>1</v>
       </c>
       <c r="HH74" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI74" t="n">
+        <v>3</v>
+      </c>
+      <c r="HJ74" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK74" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL74" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM74" t="n">
         <v>1</v>
       </c>
-      <c r="HI74" t="n">
-        <v>4</v>
-      </c>
-      <c r="HJ74" t="n">
-        <v>2</v>
-      </c>
-      <c r="HK74" t="n">
-        <v>4</v>
-      </c>
-      <c r="HL74" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM74" t="n">
+      <c r="HN74" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO74" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP74" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ74" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR74" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS74" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT74" t="n">
         <v>3</v>
       </c>
-      <c r="HN74" t="n">
-        <v>3</v>
-      </c>
-      <c r="HO74" t="n">
-        <v>2</v>
-      </c>
-      <c r="HP74" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ74" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR74" t="n">
-        <v>2</v>
-      </c>
-      <c r="HS74" t="n">
-        <v>15</v>
-      </c>
-      <c r="HT74" t="n">
-        <v>8</v>
-      </c>
       <c r="HU74" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="HV74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HW74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HX74" t="n">
         <v>1</v>
       </c>
       <c r="HY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA74" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB74" t="n">
         <v>1</v>
       </c>
-      <c r="HZ74" t="n">
+      <c r="IC74" t="n">
         <v>1</v>
       </c>
-      <c r="IA74" t="n">
-        <v>2</v>
-      </c>
-      <c r="IB74" t="n">
-        <v>6</v>
-      </c>
-      <c r="IC74" t="n">
-        <v>0</v>
-      </c>
       <c r="ID74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="IE74" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF74" t="n">
         <v>1</v>
       </c>
-      <c r="IF74" t="n">
-        <v>0</v>
-      </c>
       <c r="IG74" t="n">
+        <v>3</v>
+      </c>
+      <c r="IH74" t="n">
         <v>1</v>
       </c>
-      <c r="IH74" t="n">
-        <v>0</v>
-      </c>
       <c r="II74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IJ74" t="n">
         <v>1</v>
       </c>
       <c r="IK74" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="IL74" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM74" t="n">
+        <v>34</v>
+      </c>
+      <c r="IN74" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO74" t="n">
+        <v>2</v>
+      </c>
+      <c r="IP74" t="n">
         <v>1</v>
       </c>
-      <c r="IM74" t="n">
-        <v>18</v>
-      </c>
-      <c r="IN74" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO74" t="n">
-        <v>2</v>
-      </c>
-      <c r="IP74" t="n">
-        <v>7</v>
-      </c>
       <c r="IQ74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IR74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -57029,49 +57029,49 @@
         <v>2026</v>
       </c>
       <c r="B75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q75" t="n">
         <v>4</v>
@@ -57080,43 +57080,43 @@
         <v>1</v>
       </c>
       <c r="S75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>3</v>
+      </c>
+      <c r="W75" t="n">
+        <v>2</v>
+      </c>
+      <c r="X75" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y75" t="n">
         <v>1</v>
       </c>
-      <c r="V75" t="n">
-        <v>2</v>
-      </c>
-      <c r="W75" t="n">
-        <v>1</v>
-      </c>
-      <c r="X75" t="n">
-        <v>43</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>2</v>
-      </c>
       <c r="Z75" t="n">
         <v>2</v>
       </c>
       <c r="AA75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB75" t="n">
         <v>1</v>
       </c>
       <c r="AC75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE75" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AF75" t="n">
         <v>1</v>
@@ -57125,13 +57125,13 @@
         <v>4</v>
       </c>
       <c r="AH75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK75" t="n">
         <v>2</v>
@@ -57149,55 +57149,55 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY75" t="n">
         <v>1</v>
       </c>
-      <c r="AQ75" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR75" t="n">
+      <c r="AZ75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>36</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" t="n">
         <v>14</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD75" t="n">
-        <v>11</v>
-      </c>
-      <c r="BE75" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF75" t="n">
-        <v>12</v>
       </c>
       <c r="BG75" t="n">
         <v>2</v>
@@ -57209,13 +57209,13 @@
         <v>5</v>
       </c>
       <c r="BJ75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BK75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL75" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BM75" t="n">
         <v>0</v>
@@ -57224,7 +57224,7 @@
         <v>2</v>
       </c>
       <c r="BO75" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BP75" t="n">
         <v>0</v>
@@ -57233,67 +57233,67 @@
         <v>1</v>
       </c>
       <c r="BR75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA75" t="n">
+        <v>4</v>
+      </c>
+      <c r="CB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE75" t="n">
         <v>3</v>
       </c>
-      <c r="BS75" t="n">
+      <c r="CF75" t="n">
+        <v>9</v>
+      </c>
+      <c r="CG75" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH75" t="n">
         <v>3</v>
       </c>
-      <c r="BT75" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV75" t="n">
-        <v>4</v>
-      </c>
-      <c r="BW75" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX75" t="n">
-        <v>4</v>
-      </c>
-      <c r="BY75" t="n">
+      <c r="CI75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL75" t="n">
         <v>1</v>
-      </c>
-      <c r="BZ75" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB75" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC75" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD75" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE75" t="n">
-        <v>4</v>
-      </c>
-      <c r="CF75" t="n">
-        <v>16</v>
-      </c>
-      <c r="CG75" t="n">
-        <v>2</v>
-      </c>
-      <c r="CH75" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI75" t="n">
-        <v>3</v>
-      </c>
-      <c r="CJ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK75" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL75" t="n">
-        <v>3</v>
       </c>
       <c r="CM75" t="n">
         <v>4</v>
@@ -57302,34 +57302,34 @@
         <v>1</v>
       </c>
       <c r="CO75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CP75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CQ75" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="CR75" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CS75" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV75" t="n">
         <v>0</v>
       </c>
       <c r="CW75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CX75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CY75" t="n">
         <v>1</v>
@@ -57341,112 +57341,112 @@
         <v>0</v>
       </c>
       <c r="DB75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DC75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DD75" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DE75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DF75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="DG75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DH75" t="n">
         <v>2</v>
       </c>
       <c r="DI75" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="DJ75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DK75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DL75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DM75" t="n">
         <v>1</v>
       </c>
       <c r="DN75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DO75" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="DP75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DQ75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DR75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS75" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="DT75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU75" t="n">
         <v>1</v>
       </c>
       <c r="DV75" t="n">
+        <v>8</v>
+      </c>
+      <c r="DW75" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX75" t="n">
+        <v>6</v>
+      </c>
+      <c r="DY75" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA75" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB75" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC75" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED75" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE75" t="n">
+        <v>18</v>
+      </c>
+      <c r="EF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG75" t="n">
+        <v>2</v>
+      </c>
+      <c r="EH75" t="n">
+        <v>6</v>
+      </c>
+      <c r="EI75" t="n">
         <v>3</v>
       </c>
-      <c r="DW75" t="n">
-        <v>2</v>
-      </c>
-      <c r="DX75" t="n">
-        <v>2</v>
-      </c>
-      <c r="DY75" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ75" t="n">
+      <c r="EJ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK75" t="n">
         <v>1</v>
-      </c>
-      <c r="EA75" t="n">
-        <v>2</v>
-      </c>
-      <c r="EB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC75" t="n">
-        <v>6</v>
-      </c>
-      <c r="ED75" t="n">
-        <v>3</v>
-      </c>
-      <c r="EE75" t="n">
-        <v>27</v>
-      </c>
-      <c r="EF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG75" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH75" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI75" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK75" t="n">
-        <v>4</v>
       </c>
       <c r="EL75" t="n">
         <v>1</v>
@@ -57458,7 +57458,7 @@
         <v>0</v>
       </c>
       <c r="EO75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="EP75" t="n">
         <v>4</v>
@@ -57470,58 +57470,58 @@
         <v>0</v>
       </c>
       <c r="ES75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="ET75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="EU75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EW75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EX75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EZ75" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="FA75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FB75" t="n">
         <v>1</v>
       </c>
       <c r="FC75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FD75" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FE75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FF75" t="n">
         <v>1</v>
       </c>
       <c r="FG75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="FH75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FI75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FK75" t="n">
         <v>1</v>
@@ -57533,253 +57533,253 @@
         <v>2</v>
       </c>
       <c r="FN75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="FO75" t="n">
         <v>2</v>
       </c>
       <c r="FP75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FQ75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FR75" t="n">
         <v>1</v>
       </c>
       <c r="FS75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="FT75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FU75" t="n">
         <v>9</v>
       </c>
       <c r="FV75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FW75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="FY75" t="n">
         <v>2</v>
       </c>
       <c r="FZ75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GB75" t="n">
         <v>5</v>
       </c>
       <c r="GC75" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="GD75" t="n">
         <v>1</v>
       </c>
       <c r="GE75" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="GF75" t="n">
         <v>2</v>
       </c>
       <c r="GG75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GH75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GI75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GJ75" t="n">
         <v>1</v>
       </c>
       <c r="GK75" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL75" t="n">
+        <v>5</v>
+      </c>
+      <c r="GM75" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN75" t="n">
         <v>1</v>
       </c>
-      <c r="GL75" t="n">
-        <v>6</v>
-      </c>
-      <c r="GM75" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN75" t="n">
-        <v>0</v>
-      </c>
       <c r="GO75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GP75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="GQ75" t="n">
         <v>1</v>
       </c>
       <c r="GR75" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="GS75" t="n">
         <v>2</v>
       </c>
       <c r="GT75" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="GU75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GV75" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="GW75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX75" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="GY75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GZ75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA75" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="HB75" t="n">
         <v>0</v>
       </c>
       <c r="HC75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HD75" t="n">
         <v>5</v>
       </c>
       <c r="HE75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="HF75" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="HG75" t="n">
         <v>1</v>
       </c>
       <c r="HH75" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI75" t="n">
+        <v>3</v>
+      </c>
+      <c r="HJ75" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK75" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL75" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM75" t="n">
         <v>1</v>
       </c>
-      <c r="HI75" t="n">
-        <v>4</v>
-      </c>
-      <c r="HJ75" t="n">
-        <v>2</v>
-      </c>
-      <c r="HK75" t="n">
-        <v>4</v>
-      </c>
-      <c r="HL75" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM75" t="n">
+      <c r="HN75" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO75" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP75" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ75" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR75" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS75" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT75" t="n">
         <v>3</v>
       </c>
-      <c r="HN75" t="n">
-        <v>3</v>
-      </c>
-      <c r="HO75" t="n">
-        <v>2</v>
-      </c>
-      <c r="HP75" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR75" t="n">
-        <v>2</v>
-      </c>
-      <c r="HS75" t="n">
-        <v>15</v>
-      </c>
-      <c r="HT75" t="n">
-        <v>8</v>
-      </c>
       <c r="HU75" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="HV75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HW75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HX75" t="n">
         <v>1</v>
       </c>
       <c r="HY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA75" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB75" t="n">
         <v>1</v>
       </c>
-      <c r="HZ75" t="n">
+      <c r="IC75" t="n">
         <v>1</v>
       </c>
-      <c r="IA75" t="n">
-        <v>2</v>
-      </c>
-      <c r="IB75" t="n">
-        <v>6</v>
-      </c>
-      <c r="IC75" t="n">
-        <v>0</v>
-      </c>
       <c r="ID75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="IE75" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF75" t="n">
         <v>1</v>
       </c>
-      <c r="IF75" t="n">
-        <v>0</v>
-      </c>
       <c r="IG75" t="n">
+        <v>3</v>
+      </c>
+      <c r="IH75" t="n">
         <v>1</v>
       </c>
-      <c r="IH75" t="n">
-        <v>0</v>
-      </c>
       <c r="II75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IJ75" t="n">
         <v>1</v>
       </c>
       <c r="IK75" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="IL75" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM75" t="n">
+        <v>34</v>
+      </c>
+      <c r="IN75" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO75" t="n">
+        <v>2</v>
+      </c>
+      <c r="IP75" t="n">
         <v>1</v>
       </c>
-      <c r="IM75" t="n">
-        <v>18</v>
-      </c>
-      <c r="IN75" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO75" t="n">
-        <v>2</v>
-      </c>
-      <c r="IP75" t="n">
-        <v>7</v>
-      </c>
       <c r="IQ75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IR75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
